--- a/doc/table/人物外型表.xlsx
+++ b/doc/table/人物外型表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,16 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>职业</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -216,7 +212,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -251,7 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,21 +421,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.75" customWidth="1"/>
+    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,136 +443,115 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
         <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -589,29 +562,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -621,12 +594,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/人物外型表.xlsx
+++ b/doc/table/人物外型表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>职业</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,32 +54,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Prefabs/Models/Head/Male_Head_7000</t>
+  </si>
+  <si>
+    <t>Prefabs/Models/Head/Female_Head_8100</t>
+  </si>
+  <si>
+    <t>Prefabs/Models/Weapon/Weapon_Cann_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Weapon/Weapon_Sword_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Body/Male_Body_7001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
-  </si>
-  <si>
-    <t>Prefabs/Models/Body/Male_Body_7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Head/Male_Head_7000</t>
-  </si>
-  <si>
-    <t>Prefabs/Models/Head/Female_Head_8100</t>
-  </si>
-  <si>
-    <t>Prefabs/Models/Weapon/Weapon_Cann_1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Weapon/Weapon_Sword_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Body/Female_Body_8001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Body/Male_Body_7101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Body/Male_Body_7200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Body/Female_Body_8200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Weapon/Weapon_Stuff_1006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -212,6 +233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,6 +268,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,21 +444,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="40.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,16 +483,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -477,16 +500,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -494,16 +517,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -511,16 +534,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -528,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -545,13 +568,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -562,16 +585,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -579,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -594,12 +617,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
